--- a/public/BULK STUDENTS.xlsx
+++ b/public/BULK STUDENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2AFA19-96D0-4E16-B457-9744193CE81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349DAA86-0EF4-4B10-BAF1-602CAFA54AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="386">
   <si>
     <t>name</t>
   </si>
@@ -333,30 +333,6 @@
     <t>ANJUMAN MANZOOR</t>
   </si>
   <si>
-    <t>8TH</t>
-  </si>
-  <si>
-    <t>7TH</t>
-  </si>
-  <si>
-    <t>6TH</t>
-  </si>
-  <si>
-    <t>5TH</t>
-  </si>
-  <si>
-    <t>4TH</t>
-  </si>
-  <si>
-    <t>3RD</t>
-  </si>
-  <si>
-    <t>2ND</t>
-  </si>
-  <si>
-    <t>IST</t>
-  </si>
-  <si>
     <t>KG</t>
   </si>
   <si>
@@ -943,6 +919,279 @@
   </si>
   <si>
     <t>0174040100013370</t>
+  </si>
+  <si>
+    <t>"17-03-2009"</t>
+  </si>
+  <si>
+    <t>"15-10-2010"</t>
+  </si>
+  <si>
+    <t>"15-08-2010"</t>
+  </si>
+  <si>
+    <t>"20-03-2007"</t>
+  </si>
+  <si>
+    <t>"15-10-2011"</t>
+  </si>
+  <si>
+    <t>"10-09-2010"</t>
+  </si>
+  <si>
+    <t>"26-02-2010"</t>
+  </si>
+  <si>
+    <t>"06-02-2009"</t>
+  </si>
+  <si>
+    <t>"23-07-2011"</t>
+  </si>
+  <si>
+    <t>"21-04-2009"</t>
+  </si>
+  <si>
+    <t>"22-12-2009"</t>
+  </si>
+  <si>
+    <t>"15-04-2011"</t>
+  </si>
+  <si>
+    <t>"10-03-2011"</t>
+  </si>
+  <si>
+    <t>"15-04-2010"</t>
+  </si>
+  <si>
+    <t>"16-12-2011"</t>
+  </si>
+  <si>
+    <t>"06-02-2011"</t>
+  </si>
+  <si>
+    <t>"03-03-2011"</t>
+  </si>
+  <si>
+    <t>"15-06-2011"</t>
+  </si>
+  <si>
+    <t>"27-11-2011"</t>
+  </si>
+  <si>
+    <t>"03-05-2011"</t>
+  </si>
+  <si>
+    <t>"06-03-2012"</t>
+  </si>
+  <si>
+    <t>"11-08-2009"</t>
+  </si>
+  <si>
+    <t>"09-11-2011"</t>
+  </si>
+  <si>
+    <t>"02-08-2012"</t>
+  </si>
+  <si>
+    <t>"01-04-2009"</t>
+  </si>
+  <si>
+    <t>"20-08-2011"</t>
+  </si>
+  <si>
+    <t>"25-05-2012"</t>
+  </si>
+  <si>
+    <t>"03-12-2011"</t>
+  </si>
+  <si>
+    <t>"13-02-2012"</t>
+  </si>
+  <si>
+    <t>"15-11-2013"</t>
+  </si>
+  <si>
+    <t>"02-08-2011"</t>
+  </si>
+  <si>
+    <t>"03-03-2013"</t>
+  </si>
+  <si>
+    <t>"25-11-2013"</t>
+  </si>
+  <si>
+    <t>"07-01-2011"</t>
+  </si>
+  <si>
+    <t>"08-01-2015"</t>
+  </si>
+  <si>
+    <t>"26-11-2012"</t>
+  </si>
+  <si>
+    <t>"02-04-2012"</t>
+  </si>
+  <si>
+    <t>"25-06-2013"</t>
+  </si>
+  <si>
+    <t>"12-10-2013"</t>
+  </si>
+  <si>
+    <t>"06-07-2010"</t>
+  </si>
+  <si>
+    <t>"28-02-2014"</t>
+  </si>
+  <si>
+    <t>"14-12-2014"</t>
+  </si>
+  <si>
+    <t>"21-07-2014"</t>
+  </si>
+  <si>
+    <t>"18-02-2014"</t>
+  </si>
+  <si>
+    <t>"22-08-2014"</t>
+  </si>
+  <si>
+    <t>"18-10-2016"</t>
+  </si>
+  <si>
+    <t>"27-03-2016"</t>
+  </si>
+  <si>
+    <t>"19-04-2016"</t>
+  </si>
+  <si>
+    <t>"01-06-2016"</t>
+  </si>
+  <si>
+    <t>"20-09-2014"</t>
+  </si>
+  <si>
+    <t>"22-06-2013"</t>
+  </si>
+  <si>
+    <t>"07-07-2013"</t>
+  </si>
+  <si>
+    <t>"01-11-2014"</t>
+  </si>
+  <si>
+    <t>"10-09-2015"</t>
+  </si>
+  <si>
+    <t>"01-09-2013"</t>
+  </si>
+  <si>
+    <t>"04-04-2014"</t>
+  </si>
+  <si>
+    <t>"29-10-2016"</t>
+  </si>
+  <si>
+    <t>"17-04-2016"</t>
+  </si>
+  <si>
+    <t>"23-06-2015"</t>
+  </si>
+  <si>
+    <t>"02-09-2014"</t>
+  </si>
+  <si>
+    <t>"06-11-2016"</t>
+  </si>
+  <si>
+    <t>"23-04-2017"</t>
+  </si>
+  <si>
+    <t>"16-02-2016"</t>
+  </si>
+  <si>
+    <t>"30-05-2015"</t>
+  </si>
+  <si>
+    <t>"11-06-2016"</t>
+  </si>
+  <si>
+    <t>"12-01-2016"</t>
+  </si>
+  <si>
+    <t>"07-07-2014"</t>
+  </si>
+  <si>
+    <t>"15-11-2016"</t>
+  </si>
+  <si>
+    <t>"06-09-2016"</t>
+  </si>
+  <si>
+    <t>"22-02-2017"</t>
+  </si>
+  <si>
+    <t>"18-03-2018"</t>
+  </si>
+  <si>
+    <t>"04-05-2017"</t>
+  </si>
+  <si>
+    <t>"03-11-2017"</t>
+  </si>
+  <si>
+    <t>"19-12-2017"</t>
+  </si>
+  <si>
+    <t>"14-08-2017"</t>
+  </si>
+  <si>
+    <t>"21-06-2017"</t>
+  </si>
+  <si>
+    <t>"10-10-2016"</t>
+  </si>
+  <si>
+    <t>"26-01-2019"</t>
+  </si>
+  <si>
+    <t>"27-06-2016"</t>
+  </si>
+  <si>
+    <t>"14-12-2018"</t>
+  </si>
+  <si>
+    <t>"12-12-2016"</t>
+  </si>
+  <si>
+    <t>"21-02-2017"</t>
+  </si>
+  <si>
+    <t>"20-10-2016"</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>3rd</t>
   </si>
 </sst>
 </file>
@@ -999,53 +1248,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1365,43 +1609,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D15:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="5" max="5" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="48" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
@@ -1410,10 +1653,10 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1424,24 +1667,24 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>594</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="14">
-        <v>39889</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>108</v>
+      <c r="D2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1449,11 +1692,11 @@
       <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>234</v>
+      <c r="J2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -1463,24 +1706,24 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>595</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="14">
-        <v>40466</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
-        <v>109</v>
+      <c r="D3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1488,11 +1731,11 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>235</v>
+      <c r="J3" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>227</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -1502,24 +1745,24 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>596</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="14">
-        <v>40405</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>110</v>
+      <c r="D4" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1527,11 +1770,11 @@
       <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>236</v>
+      <c r="J4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1541,24 +1784,24 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>604</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="14">
-        <v>39161</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>111</v>
+      <c r="D5" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1566,11 +1809,11 @@
       <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>237</v>
+      <c r="J5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -1580,26 +1823,26 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>597</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="14">
-        <v>40831</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>112</v>
+      <c r="D6" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1607,11 +1850,11 @@
       <c r="I6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>238</v>
+      <c r="J6" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -1621,26 +1864,26 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>598</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="14">
-        <v>40431</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>113</v>
+      <c r="D7" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1648,11 +1891,11 @@
       <c r="I7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>239</v>
+      <c r="J7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1662,26 +1905,26 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>599</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="14">
-        <v>40235</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>114</v>
+      <c r="D8" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1689,11 +1932,11 @@
       <c r="I8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>240</v>
+      <c r="J8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -1703,26 +1946,26 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>600</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="14">
-        <v>39850</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>114</v>
+      <c r="D9" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1730,11 +1973,11 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>241</v>
+      <c r="J9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1744,26 +1987,26 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>601</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="14">
-        <v>40747</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>115</v>
+      <c r="D10" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1771,11 +2014,11 @@
       <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>242</v>
+      <c r="J10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -1785,26 +2028,26 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>602</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="14">
-        <v>39924</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>116</v>
+      <c r="D11" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1812,11 +2055,11 @@
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>243</v>
+      <c r="J11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -1826,26 +2069,26 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>603</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="14">
-        <v>40169</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>117</v>
+      <c r="D12" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1853,11 +2096,11 @@
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>244</v>
+      <c r="J12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -1867,26 +2110,26 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>605</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="14">
-        <v>40648</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>118</v>
+      <c r="D13" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1894,11 +2137,11 @@
       <c r="I13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>245</v>
+      <c r="J13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -1908,24 +2151,24 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>606</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="14">
-        <v>40612</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4" t="s">
-        <v>119</v>
+      <c r="D14" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1933,11 +2176,11 @@
       <c r="I14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>246</v>
+      <c r="J14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1947,24 +2190,24 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>607</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="14">
-        <v>40283</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4" t="s">
-        <v>118</v>
+      <c r="D15" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1972,11 +2215,11 @@
       <c r="I15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>247</v>
+      <c r="J15" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1986,24 +2229,24 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>608</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="14">
-        <v>40893</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>117</v>
+      <c r="D16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2011,11 +2254,11 @@
       <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>248</v>
+      <c r="J16" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2025,24 +2268,24 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>609</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="14">
-        <v>40580</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>120</v>
+      <c r="D17" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2050,11 +2293,11 @@
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>249</v>
+      <c r="J17" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2064,24 +2307,24 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>610</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="14">
-        <v>40605</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>121</v>
+      <c r="D18" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2089,11 +2332,11 @@
       <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>250</v>
+      <c r="J18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2103,24 +2346,24 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>611</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="14">
-        <v>40709</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>113</v>
+      <c r="D19" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2128,11 +2371,11 @@
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>251</v>
+      <c r="J19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2142,24 +2385,24 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>612</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="14">
-        <v>40874</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4" t="s">
-        <v>116</v>
+      <c r="D20" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2167,11 +2410,11 @@
       <c r="I20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>252</v>
+      <c r="J20" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2181,24 +2424,24 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>613</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="14">
-        <v>40666</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>122</v>
+      <c r="D21" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2206,11 +2449,11 @@
       <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>253</v>
+      <c r="J21" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2220,36 +2463,36 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>614</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="14">
-        <v>40974</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>254</v>
+      <c r="J22" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2259,24 +2502,24 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>615</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="14">
-        <v>40036</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>123</v>
+      <c r="D23" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2284,11 +2527,11 @@
       <c r="I23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>255</v>
+      <c r="J23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2298,24 +2541,24 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>879</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="14">
-        <v>40856</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>124</v>
+      <c r="D24" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2323,11 +2566,11 @@
       <c r="I24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>256</v>
+      <c r="J24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2337,24 +2580,24 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>882</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="14">
-        <v>41123</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4" t="s">
-        <v>125</v>
+      <c r="D25" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -2362,11 +2605,11 @@
       <c r="I25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>257</v>
+      <c r="J25" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2376,24 +2619,24 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>854</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="14">
-        <v>39904</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4" t="s">
-        <v>126</v>
+      <c r="D26" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -2401,11 +2644,11 @@
       <c r="I26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>258</v>
+      <c r="J26" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2415,24 +2658,24 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>864</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="14">
-        <v>40775</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4" t="s">
-        <v>127</v>
+      <c r="D27" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -2440,11 +2683,11 @@
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>259</v>
+      <c r="J27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2454,24 +2697,24 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>874</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="14">
-        <v>41054</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4" t="s">
-        <v>123</v>
+      <c r="D28" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -2479,11 +2722,11 @@
       <c r="I28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>260</v>
+      <c r="J28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2493,24 +2736,24 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>876</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="14">
-        <v>40880</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4" t="s">
-        <v>128</v>
+      <c r="D29" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -2518,11 +2761,11 @@
       <c r="I29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>261</v>
+      <c r="J29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2532,26 +2775,26 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>880</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="14">
-        <v>40952</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>129</v>
+      <c r="D30" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -2559,11 +2802,11 @@
       <c r="I30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>262</v>
+      <c r="J30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>254</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2573,26 +2816,26 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>883</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="14">
-        <v>41593</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>130</v>
+      <c r="D31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -2600,11 +2843,11 @@
       <c r="I31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>263</v>
+      <c r="J31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2614,26 +2857,26 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>884</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="14">
-        <v>40757</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>131</v>
+      <c r="D32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -2641,11 +2884,11 @@
       <c r="I32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>264</v>
+      <c r="J32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -2655,26 +2898,26 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>886</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="14">
-        <v>41336</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>132</v>
+      <c r="D33" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -2682,11 +2925,11 @@
       <c r="I33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>265</v>
+      <c r="J33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -2696,24 +2939,24 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>885</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="14">
-        <v>41603</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4" t="s">
-        <v>133</v>
+      <c r="D34" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -2721,11 +2964,11 @@
       <c r="I34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>266</v>
+      <c r="J34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -2735,24 +2978,24 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B35">
         <v>32</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>888</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="14">
-        <v>40550</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4" t="s">
-        <v>134</v>
+      <c r="D35" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -2760,9 +3003,9 @@
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="18" t="s">
-        <v>267</v>
+      <c r="J35" s="9"/>
+      <c r="K35" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -2772,24 +3015,24 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B36">
         <v>33</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>893</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="14">
-        <v>42012</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4" t="s">
-        <v>135</v>
+      <c r="D36" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -2797,11 +3040,11 @@
       <c r="I36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>268</v>
+      <c r="J36" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -2811,24 +3054,24 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B37">
         <v>34</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>895</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="14">
-        <v>41239</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4" t="s">
-        <v>116</v>
+      <c r="D37" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -2836,11 +3079,11 @@
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>269</v>
+      <c r="J37" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -2850,24 +3093,24 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="5">
         <v>891</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="14">
-        <v>41001</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4" t="s">
-        <v>136</v>
+      <c r="D38" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -2875,11 +3118,11 @@
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>270</v>
+      <c r="J38" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>262</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -2889,24 +3132,24 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B39">
         <v>36</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>899</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="14">
-        <v>41450</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4" t="s">
-        <v>136</v>
+      <c r="D39" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2914,11 +3157,11 @@
       <c r="I39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>271</v>
+      <c r="J39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -2928,24 +3171,24 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B40">
         <v>37</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="5">
         <v>896</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="14">
-        <v>41559</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4" t="s">
-        <v>119</v>
+      <c r="D40" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -2953,9 +3196,9 @@
       <c r="I40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="18" t="s">
-        <v>272</v>
+      <c r="J40" s="9"/>
+      <c r="K40" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -2965,24 +3208,24 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B41">
         <v>38</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>853</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="14">
-        <v>40365</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4" t="s">
-        <v>137</v>
+      <c r="D41" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -2990,11 +3233,11 @@
       <c r="I41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>273</v>
+      <c r="J41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3004,24 +3247,24 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B42">
         <v>39</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="5">
         <v>902</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="14">
-        <v>41698</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4" t="s">
-        <v>138</v>
+      <c r="D42" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -3029,11 +3272,11 @@
       <c r="I42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>274</v>
+      <c r="J42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3043,24 +3286,24 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B43">
         <v>40</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>903</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="14">
-        <v>41987</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4" t="s">
-        <v>119</v>
+      <c r="D43" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -3068,9 +3311,9 @@
       <c r="I43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="18" t="s">
-        <v>275</v>
+      <c r="J43" s="9"/>
+      <c r="K43" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3080,24 +3323,24 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B44">
         <v>41</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>904</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="14">
-        <v>41841</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4" t="s">
-        <v>139</v>
+      <c r="D44" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -3105,11 +3348,11 @@
       <c r="I44" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>276</v>
+      <c r="J44" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>268</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3119,24 +3362,24 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B45">
         <v>42</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>906</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="14">
-        <v>41688</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4" t="s">
-        <v>140</v>
+      <c r="D45" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -3144,11 +3387,11 @@
       <c r="I45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>277</v>
+      <c r="J45" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="L45" t="s">
         <v>16</v>
@@ -3158,24 +3401,24 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B46">
         <v>43</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>907</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="14">
-        <v>41873</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4" t="s">
-        <v>141</v>
+      <c r="D46" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -3183,11 +3426,11 @@
       <c r="I46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>278</v>
+      <c r="J46" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="L46" t="s">
         <v>16</v>
@@ -3197,24 +3440,24 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B47">
         <v>44</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>908</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="14">
-        <v>42661</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4" t="s">
-        <v>116</v>
+      <c r="D47" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -3222,11 +3465,11 @@
       <c r="I47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>279</v>
+      <c r="J47" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="L47" t="s">
         <v>16</v>
@@ -3236,24 +3479,24 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B48">
         <v>45</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>910</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="14">
-        <v>42456</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4" t="s">
-        <v>130</v>
+      <c r="D48" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -3261,11 +3504,11 @@
       <c r="I48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>280</v>
+      <c r="J48" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="L48" t="s">
         <v>16</v>
@@ -3275,24 +3518,24 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B49">
         <v>46</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>911</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="14">
-        <v>42479</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4" t="s">
-        <v>138</v>
+      <c r="D49" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -3300,9 +3543,9 @@
       <c r="I49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="18" t="s">
-        <v>281</v>
+      <c r="J49" s="9"/>
+      <c r="K49" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="L49" t="s">
         <v>16</v>
@@ -3312,24 +3555,24 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B50">
         <v>47</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>913</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="14">
-        <v>42522</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4" t="s">
-        <v>142</v>
+      <c r="D50" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -3337,9 +3580,9 @@
       <c r="I50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="18" t="s">
-        <v>282</v>
+      <c r="J50" s="9"/>
+      <c r="K50" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="L50" t="s">
         <v>16</v>
@@ -3349,24 +3592,24 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B51">
         <v>48</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>901</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="14">
-        <v>41902</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="4" t="s">
-        <v>136</v>
+      <c r="D51" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -3374,11 +3617,11 @@
       <c r="I51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>283</v>
+      <c r="J51" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>275</v>
       </c>
       <c r="L51" t="s">
         <v>16</v>
@@ -3388,24 +3631,24 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="5">
         <v>915</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="14">
-        <v>41447</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="4" t="s">
-        <v>143</v>
+      <c r="D52" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -3413,11 +3656,11 @@
       <c r="I52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>284</v>
+      <c r="J52" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="L52" t="s">
         <v>16</v>
@@ -3427,24 +3670,24 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B53">
         <v>50</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>916</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="14">
-        <v>41462</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4" t="s">
-        <v>144</v>
+      <c r="D53" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -3452,11 +3695,11 @@
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>285</v>
+      <c r="J53" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="L53" t="s">
         <v>16</v>
@@ -3466,24 +3709,24 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B54">
         <v>51</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>897</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="14">
-        <v>41944</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="4" t="s">
-        <v>131</v>
+      <c r="D54" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -3491,11 +3734,11 @@
       <c r="I54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K54" s="18" t="s">
-        <v>286</v>
+      <c r="J54" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="L54" t="s">
         <v>16</v>
@@ -3505,24 +3748,24 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B55">
         <v>52</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="5">
         <v>898</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="14">
-        <v>42257</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4" t="s">
-        <v>145</v>
+      <c r="D55" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -3530,11 +3773,11 @@
       <c r="I55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>287</v>
+      <c r="J55" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="L55" t="s">
         <v>16</v>
@@ -3544,24 +3787,24 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B56">
         <v>53</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="5">
         <v>892</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="14">
-        <v>41518</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="4" t="s">
-        <v>129</v>
+      <c r="D56" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -3569,11 +3812,11 @@
       <c r="I56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>288</v>
+      <c r="J56" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="L56" t="s">
         <v>16</v>
@@ -3583,24 +3826,24 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B57">
         <v>54</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>894</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="14">
-        <v>41733</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="4" t="s">
-        <v>146</v>
+      <c r="D57" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -3608,11 +3851,11 @@
       <c r="I57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>289</v>
+      <c r="J57" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="L57" t="s">
         <v>16</v>
@@ -3622,24 +3865,24 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B58">
         <v>55</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="5">
         <v>143</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="14">
-        <v>42672</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="4" t="s">
-        <v>137</v>
+      <c r="D58" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -3647,11 +3890,11 @@
       <c r="I58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>290</v>
+      <c r="J58" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="L58" t="s">
         <v>16</v>
@@ -3661,24 +3904,24 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B59">
         <v>56</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="5">
         <v>145</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="14">
-        <v>42477</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="4" t="s">
-        <v>147</v>
+      <c r="D59" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -3686,9 +3929,9 @@
       <c r="I59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="18" t="s">
-        <v>291</v>
+      <c r="J59" s="9"/>
+      <c r="K59" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="L59" t="s">
         <v>16</v>
@@ -3698,24 +3941,24 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B60">
         <v>57</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="5">
         <v>146</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="14">
-        <v>42178</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="4" t="s">
-        <v>148</v>
+      <c r="D60" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -3723,9 +3966,9 @@
       <c r="I60" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="18" t="s">
-        <v>292</v>
+      <c r="J60" s="9"/>
+      <c r="K60" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="L60" t="s">
         <v>16</v>
@@ -3735,24 +3978,24 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B61">
         <v>58</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="5">
         <v>147</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="14">
-        <v>41884</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4" t="s">
-        <v>149</v>
+      <c r="D61" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -3760,9 +4003,9 @@
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="18" t="s">
-        <v>293</v>
+      <c r="J61" s="9"/>
+      <c r="K61" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="L61" t="s">
         <v>16</v>
@@ -3772,24 +4015,24 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B62">
         <v>59</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="5">
         <v>149</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="14">
-        <v>42680</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="4" t="s">
-        <v>150</v>
+      <c r="D62" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -3797,11 +4040,11 @@
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>294</v>
+      <c r="J62" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="L62" t="s">
         <v>16</v>
@@ -3811,24 +4054,24 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="5">
         <v>152</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="14">
-        <v>42848</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="4" t="s">
-        <v>116</v>
+      <c r="D63" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -3836,9 +4079,9 @@
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="11"/>
-      <c r="K63" s="18" t="s">
-        <v>295</v>
+      <c r="J63" s="9"/>
+      <c r="K63" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="L63" t="s">
         <v>16</v>
@@ -3848,24 +4091,24 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B64">
         <v>61</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="5">
         <v>153</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="14">
-        <v>42416</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="4" t="s">
-        <v>141</v>
+      <c r="D64" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -3873,11 +4116,11 @@
       <c r="I64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>296</v>
+      <c r="J64" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="L64" t="s">
         <v>16</v>
@@ -3887,24 +4130,24 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B65">
         <v>62</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="5">
         <v>154</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="14">
-        <v>42154</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="4" t="s">
-        <v>151</v>
+      <c r="D65" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -3912,9 +4155,9 @@
       <c r="I65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="18" t="s">
-        <v>297</v>
+      <c r="J65" s="9"/>
+      <c r="K65" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="L65" t="s">
         <v>16</v>
@@ -3924,24 +4167,24 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="5">
         <v>905</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="14">
-        <v>42532</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="4" t="s">
-        <v>152</v>
+      <c r="D66" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -3949,11 +4192,11 @@
       <c r="I66" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="K66" s="18" t="s">
-        <v>298</v>
+      <c r="J66" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="L66" t="s">
         <v>16</v>
@@ -3963,24 +4206,24 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B67">
         <v>64</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="5">
         <v>909</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="14">
-        <v>42381</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="4" t="s">
-        <v>153</v>
+      <c r="D67" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -3988,9 +4231,9 @@
       <c r="I67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="18" t="s">
-        <v>299</v>
+      <c r="J67" s="9"/>
+      <c r="K67" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="L67" t="s">
         <v>16</v>
@@ -4000,24 +4243,24 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B68">
         <v>65</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="5">
         <v>912</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="14">
-        <v>41827</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="4" t="s">
-        <v>123</v>
+      <c r="D68" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -4025,9 +4268,9 @@
       <c r="I68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="18" t="s">
-        <v>300</v>
+      <c r="J68" s="9"/>
+      <c r="K68" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="L68" t="s">
         <v>16</v>
@@ -4037,24 +4280,24 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B69">
         <v>66</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="5">
         <v>914</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="14">
-        <v>42689</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="4" t="s">
-        <v>154</v>
+      <c r="D69" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -4062,11 +4305,11 @@
       <c r="I69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="K69" s="18" t="s">
-        <v>301</v>
+      <c r="J69" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="L69" t="s">
         <v>16</v>
@@ -4076,24 +4319,24 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B70">
         <v>67</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="5">
         <v>925</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="14">
-        <v>42689</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="4" t="s">
-        <v>137</v>
+      <c r="D70" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -4101,11 +4344,11 @@
       <c r="I70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="K70" s="18" t="s">
-        <v>302</v>
+      <c r="J70" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="L70" t="s">
         <v>16</v>
@@ -4115,24 +4358,24 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B71">
         <v>68</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="5">
         <v>926</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="14">
-        <v>42619</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="4" t="s">
-        <v>155</v>
+      <c r="D71" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -4140,10 +4383,10 @@
       <c r="I71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="K71" s="18"/>
+      <c r="J71" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="15"/>
       <c r="L71" t="s">
         <v>16</v>
       </c>
@@ -4152,24 +4395,24 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B72">
         <v>69</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="5">
         <v>148</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E72" s="15">
-        <v>42788</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="5" t="s">
-        <v>140</v>
+      <c r="D72" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -4177,8 +4420,8 @@
       <c r="I72" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="12"/>
-      <c r="K72" s="19"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="16"/>
       <c r="L72" t="s">
         <v>16</v>
       </c>
@@ -4187,24 +4430,24 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B73">
         <v>70</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>150</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" s="15">
-        <v>43177</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="5" t="s">
-        <v>156</v>
+      <c r="D73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -4212,8 +4455,8 @@
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="12"/>
-      <c r="K73" s="19"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="16"/>
       <c r="L73" t="s">
         <v>16</v>
       </c>
@@ -4222,24 +4465,24 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B74">
         <v>71</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="5">
         <v>151</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="15">
-        <v>42859</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="5" t="s">
-        <v>137</v>
+      <c r="D74" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -4247,8 +4490,8 @@
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="12"/>
-      <c r="K74" s="19"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="16"/>
       <c r="L74" t="s">
         <v>16</v>
       </c>
@@ -4257,24 +4500,24 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B75">
         <v>72</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="5">
         <v>155</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="15">
-        <v>43042</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="5" t="s">
-        <v>144</v>
+      <c r="D75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -4282,10 +4525,10 @@
       <c r="I75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J75" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K75" s="19"/>
+      <c r="J75" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K75" s="16"/>
       <c r="L75" t="s">
         <v>16</v>
       </c>
@@ -4294,24 +4537,24 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B76">
         <v>73</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="5">
         <v>156</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="15">
-        <v>43088</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="5" t="s">
-        <v>157</v>
+      <c r="D76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -4319,10 +4562,10 @@
       <c r="I76" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="K76" s="19"/>
+      <c r="J76" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K76" s="16"/>
       <c r="L76" t="s">
         <v>16</v>
       </c>
@@ -4331,24 +4574,24 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B77">
         <v>74</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>157</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="15">
-        <v>42961</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="5" t="s">
-        <v>146</v>
+      <c r="D77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -4356,10 +4599,10 @@
       <c r="I77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="K77" s="19"/>
+      <c r="J77" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" s="16"/>
       <c r="L77" t="s">
         <v>16</v>
       </c>
@@ -4368,24 +4611,24 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B78">
         <v>75</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="5">
         <v>158</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="15">
-        <v>42907</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="5" t="s">
-        <v>129</v>
+      <c r="D78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -4393,8 +4636,8 @@
       <c r="I78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="19"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="16"/>
       <c r="L78" t="s">
         <v>16</v>
       </c>
@@ -4403,24 +4646,24 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B79">
         <v>76</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="5">
         <v>159</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="15">
-        <v>42653</v>
-      </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="5" t="s">
-        <v>158</v>
+      <c r="D79" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -4428,8 +4671,8 @@
       <c r="I79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="19"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="16"/>
       <c r="L79" t="s">
         <v>16</v>
       </c>
@@ -4438,24 +4681,24 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B80">
         <v>77</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="5">
         <v>160</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="15">
-        <v>43491</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="5" t="s">
-        <v>158</v>
+      <c r="D80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -4463,8 +4706,8 @@
       <c r="I80" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="19"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="16"/>
       <c r="L80" t="s">
         <v>16</v>
       </c>
@@ -4473,24 +4716,24 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B81">
         <v>78</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="5">
         <v>161</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="15">
-        <v>42548</v>
-      </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="5" t="s">
-        <v>159</v>
+      <c r="D81" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -4498,8 +4741,8 @@
       <c r="I81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="19"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="16"/>
       <c r="L81" t="s">
         <v>16</v>
       </c>
@@ -4508,24 +4751,24 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B82">
         <v>79</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="5">
         <v>162</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="15">
-        <v>43448</v>
-      </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="5" t="s">
-        <v>147</v>
+      <c r="D82" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -4533,8 +4776,8 @@
       <c r="I82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="19"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="16"/>
       <c r="L82" t="s">
         <v>16</v>
       </c>
@@ -4543,24 +4786,24 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B83">
         <v>80</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="5">
         <v>163</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E83" s="15">
-        <v>42716</v>
-      </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="5" t="s">
-        <v>119</v>
+      <c r="D83" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -4568,8 +4811,8 @@
       <c r="I83" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J83" s="11"/>
-      <c r="K83" s="19"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="16"/>
       <c r="L83" t="s">
         <v>16</v>
       </c>
@@ -4578,24 +4821,24 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B84">
         <v>81</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="5">
         <v>164</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="15">
-        <v>42787</v>
-      </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="5" t="s">
-        <v>160</v>
+      <c r="D84" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -4603,8 +4846,8 @@
       <c r="I84" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="19"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="16"/>
       <c r="L84" t="s">
         <v>16</v>
       </c>
@@ -4613,24 +4856,24 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B85">
         <v>82</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="5">
         <v>165</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="15">
-        <v>42663</v>
-      </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="5" t="s">
-        <v>161</v>
+      <c r="D85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
@@ -4638,8 +4881,8 @@
       <c r="I85" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="19"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="16"/>
       <c r="L85" t="s">
         <v>16</v>
       </c>
@@ -4648,82 +4891,82 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E86" s="16"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="1"/>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E87" s="16"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="1"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E88" s="16"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="1"/>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E89" s="16"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="1"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E90" s="16"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="1"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E91" s="16"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="1"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E92" s="16"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="1"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E93" s="16"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="1"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E94" s="16"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="1"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E95" s="16"/>
+      <c r="E95" s="14"/>
       <c r="F95" s="1"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E96" s="16"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="1"/>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E97" s="16"/>
+      <c r="E97" s="14"/>
       <c r="F97" s="1"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E98" s="16"/>
+      <c r="E98" s="14"/>
       <c r="F98" s="1"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E99" s="16"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="1"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E100" s="16"/>
+      <c r="E100" s="14"/>
       <c r="F100" s="1"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E101" s="16"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="1"/>
       <c r="I101" s="2"/>
     </row>

--- a/public/BULK STUDENTS.xlsx
+++ b/public/BULK STUDENTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349DAA86-0EF4-4B10-BAF1-602CAFA54AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD167BD1-A56A-4CAC-BC01-7CF79FF0A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B2BC0B-6A29-43F3-A3DE-855C0A576885}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="257">
   <si>
     <t>name</t>
   </si>
@@ -87,42 +87,9 @@
     <t>LMN</t>
   </si>
   <si>
-    <t>SHAKIR AHMAD KHAN</t>
-  </si>
-  <si>
-    <t>KAMRAN AHMAD BHAT</t>
-  </si>
-  <si>
-    <t>BASHARAT THIKRIYA GUJJAR</t>
-  </si>
-  <si>
-    <t>SAHIL AHMAD RATHER</t>
-  </si>
-  <si>
-    <t>MUBASHIR AHMAD GUJJAR</t>
-  </si>
-  <si>
-    <t>ZAKIR AHMAD GUJJAR</t>
-  </si>
-  <si>
-    <t>TOIB-UN-NISA</t>
-  </si>
-  <si>
-    <t>BURHAN AHMAD KHAN</t>
-  </si>
-  <si>
-    <t>ATHAR AHMAD BHAT</t>
-  </si>
-  <si>
-    <t>UZMA SHABIR</t>
-  </si>
-  <si>
     <t>SEERAT JAN</t>
   </si>
   <si>
-    <t>SAHIL RASOOL SOFI</t>
-  </si>
-  <si>
     <t>SAHIL AHMAD BHAT</t>
   </si>
   <si>
@@ -150,9 +117,6 @@
     <t>ARBIA HASSAN</t>
   </si>
   <si>
-    <t>KAMRAN ZAHOOR</t>
-  </si>
-  <si>
     <t>SAHIL AHMAD GUJJAR</t>
   </si>
   <si>
@@ -165,9 +129,6 @@
     <t>REEHANA BANO</t>
   </si>
   <si>
-    <t>INSHA ZAHOOR</t>
-  </si>
-  <si>
     <t>NAHIDA YOUSAF</t>
   </si>
   <si>
@@ -201,12 +162,6 @@
     <t>MISBA PARVEEN</t>
   </si>
   <si>
-    <t>NAYEEMA</t>
-  </si>
-  <si>
-    <t>MUSKAN BASHIR</t>
-  </si>
-  <si>
     <t>IQRA JAN</t>
   </si>
   <si>
@@ -222,9 +177,6 @@
     <t>SAIMA MAJEED</t>
   </si>
   <si>
-    <t>SADAF JAN</t>
-  </si>
-  <si>
     <t>SOHEEN AHMAD SHAH</t>
   </si>
   <si>
@@ -240,21 +192,9 @@
     <t>TABIA FEROZ</t>
   </si>
   <si>
-    <t>SUHAIL AHMAD BABA</t>
-  </si>
-  <si>
-    <t>FAIZAN AHMAD GANIE</t>
-  </si>
-  <si>
-    <t>AYAN MUZAFFAR GUROO</t>
-  </si>
-  <si>
     <t>SURIYA JAN</t>
   </si>
   <si>
-    <t>FAHEEM AHMAD DAR</t>
-  </si>
-  <si>
     <t>AKSA FAROOQ</t>
   </si>
   <si>
@@ -267,42 +207,21 @@
     <t>FAINAZ</t>
   </si>
   <si>
-    <t>JUNAID AHMAD BHAT</t>
-  </si>
-  <si>
-    <t>ARBEENA FAROOQ</t>
-  </si>
-  <si>
     <t>SADAM HUSSAIN GOJER</t>
   </si>
   <si>
-    <t>RIZWAN AHMAD SHAH</t>
-  </si>
-  <si>
     <t>ZAINAB ZAHOOR</t>
   </si>
   <si>
     <t>ZEENAT JAN</t>
   </si>
   <si>
-    <t>ADFAR BASHIR</t>
-  </si>
-  <si>
-    <t>ASMA SAJAD</t>
-  </si>
-  <si>
     <t>FATIMA</t>
   </si>
   <si>
     <t>DAR TALIB</t>
   </si>
   <si>
-    <t>ZOHRA</t>
-  </si>
-  <si>
-    <t>ZOHARA JAN</t>
-  </si>
-  <si>
     <t>VIHAAN</t>
   </si>
   <si>
@@ -324,42 +243,18 @@
     <t>MOMIN AHMAD KUMAR</t>
   </si>
   <si>
-    <t>BASHARAT AHMAD BHAT</t>
-  </si>
-  <si>
     <t>WASEEM AHMAD GUJAR</t>
   </si>
   <si>
-    <t>ANJUMAN MANZOOR</t>
-  </si>
-  <si>
     <t>KG</t>
   </si>
   <si>
-    <t>GHULAM NABI KHAN</t>
-  </si>
-  <si>
     <t>GHULAM HASSAN BHAT</t>
   </si>
   <si>
-    <t>CHANDI THIKRIYA GUJJAR</t>
-  </si>
-  <si>
-    <t>ABDUL REHMAN RATHER</t>
-  </si>
-  <si>
-    <t>SHOWKAT AHMAD GUJJAR</t>
-  </si>
-  <si>
     <t>MOHAMMAD ALTAF GUJJAR</t>
   </si>
   <si>
-    <t>GULAB KHAN</t>
-  </si>
-  <si>
-    <t>GULAM HASSAN BHAT</t>
-  </si>
-  <si>
     <t>SHABIR AHMAD BHAT</t>
   </si>
   <si>
@@ -423,9 +318,6 @@
     <t>QAYOOM AHMAD SALMANI</t>
   </si>
   <si>
-    <t>BASHIR AHMAD RATHER</t>
-  </si>
-  <si>
     <t>GHULAM QADIR GUJJAR CHEECHI</t>
   </si>
   <si>
@@ -444,12 +336,6 @@
     <t>FAROZ AHMAD RATHER</t>
   </si>
   <si>
-    <t>PARVAIZ AHMAD BABA</t>
-  </si>
-  <si>
-    <t>MUZAFFAR AHMAD GUROO</t>
-  </si>
-  <si>
     <t>MOHAMMAD ABDULLAH DAR</t>
   </si>
   <si>
@@ -465,21 +351,12 @@
     <t>TOTA GOJAR</t>
   </si>
   <si>
-    <t>FAROOQ  AHMAD RATHER</t>
-  </si>
-  <si>
     <t>ALTAF AHMAD GOJER</t>
   </si>
   <si>
-    <t>ADIL AHMAD SHAH</t>
-  </si>
-  <si>
     <t xml:space="preserve">HILAL AHMAD RATHER </t>
   </si>
   <si>
-    <t>SAJAD AHMAD WAZA</t>
-  </si>
-  <si>
     <t>IRFAN AHMAD DAR</t>
   </si>
   <si>
@@ -495,30 +372,6 @@
     <t>MOHAMMAD YOUSUF GUJAR</t>
   </si>
   <si>
-    <t>MANZOOR AHMAD KHAN</t>
-  </si>
-  <si>
-    <t>RUBEENA BANO</t>
-  </si>
-  <si>
-    <t>GULSHAN BANO</t>
-  </si>
-  <si>
-    <t>ROSHAN ARA</t>
-  </si>
-  <si>
-    <t>AFROOZA BANO</t>
-  </si>
-  <si>
-    <t>LOVELY BANO</t>
-  </si>
-  <si>
-    <t>SHAMEEMA</t>
-  </si>
-  <si>
-    <t>PARVEENA BANO</t>
-  </si>
-  <si>
     <t>MISRA BEIGUM</t>
   </si>
   <si>
@@ -531,42 +384,6 @@
     <t>GULNAZ</t>
   </si>
   <si>
-    <t>866336109008</t>
-  </si>
-  <si>
-    <t>780360850771</t>
-  </si>
-  <si>
-    <t>298893276541</t>
-  </si>
-  <si>
-    <t>821991997562</t>
-  </si>
-  <si>
-    <t>976460497164</t>
-  </si>
-  <si>
-    <t>268030523133</t>
-  </si>
-  <si>
-    <t>337444305671</t>
-  </si>
-  <si>
-    <t>841670221633</t>
-  </si>
-  <si>
-    <t>298396521552</t>
-  </si>
-  <si>
-    <t>227628287584</t>
-  </si>
-  <si>
-    <t>517047093104</t>
-  </si>
-  <si>
-    <t>890339365622</t>
-  </si>
-  <si>
     <t>359218244543</t>
   </si>
   <si>
@@ -594,9 +411,6 @@
     <t>652317661069</t>
   </si>
   <si>
-    <t>350295694091</t>
-  </si>
-  <si>
     <t>253430872841</t>
   </si>
   <si>
@@ -609,9 +423,6 @@
     <t>235377227178</t>
   </si>
   <si>
-    <t>801059581124</t>
-  </si>
-  <si>
     <t>352015436045</t>
   </si>
   <si>
@@ -642,9 +453,6 @@
     <t>878853028040</t>
   </si>
   <si>
-    <t>544658628555</t>
-  </si>
-  <si>
     <t>833147909364</t>
   </si>
   <si>
@@ -657,9 +465,6 @@
     <t>910388487336</t>
   </si>
   <si>
-    <t>455279339004</t>
-  </si>
-  <si>
     <t>720824351588</t>
   </si>
   <si>
@@ -669,24 +474,9 @@
     <t>474071143392</t>
   </si>
   <si>
-    <t>674163680963</t>
-  </si>
-  <si>
-    <t>777796812893</t>
-  </si>
-  <si>
-    <t>315105224549</t>
-  </si>
-  <si>
     <t>768231845501</t>
   </si>
   <si>
-    <t>314389838667</t>
-  </si>
-  <si>
-    <t>462283258362</t>
-  </si>
-  <si>
     <t>559776358432</t>
   </si>
   <si>
@@ -699,57 +489,12 @@
     <t>406669823378</t>
   </si>
   <si>
-    <t>786080667554</t>
-  </si>
-  <si>
-    <t>3914466321824</t>
-  </si>
-  <si>
-    <t>933887367456</t>
-  </si>
-  <si>
     <t>736263285663</t>
   </si>
   <si>
     <t>898905305439</t>
   </si>
   <si>
-    <t>0174040800014500</t>
-  </si>
-  <si>
-    <t>0174040800015269</t>
-  </si>
-  <si>
-    <t>0174040800014790</t>
-  </si>
-  <si>
-    <t>0174040800008551</t>
-  </si>
-  <si>
-    <t>0174040800015265</t>
-  </si>
-  <si>
-    <t>0174040800014984</t>
-  </si>
-  <si>
-    <t>0174040800015329</t>
-  </si>
-  <si>
-    <t>0174040800015328</t>
-  </si>
-  <si>
-    <t>0174040800015268</t>
-  </si>
-  <si>
-    <t>0174040800016151</t>
-  </si>
-  <si>
-    <t>0174040800015310</t>
-  </si>
-  <si>
-    <t>0174040800014586</t>
-  </si>
-  <si>
     <t>0174040800015277</t>
   </si>
   <si>
@@ -777,9 +522,6 @@
     <t>0174040110000588</t>
   </si>
   <si>
-    <t>0174040800015843</t>
-  </si>
-  <si>
     <t>0174040800015809</t>
   </si>
   <si>
@@ -792,9 +534,6 @@
     <t>0174040150002594</t>
   </si>
   <si>
-    <t>0174040150002917</t>
-  </si>
-  <si>
     <t>0174040800015800</t>
   </si>
   <si>
@@ -828,12 +567,6 @@
     <t>0174041000000609</t>
   </si>
   <si>
-    <t>0174041000000722</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>0174041000000590</t>
   </si>
   <si>
@@ -849,9 +582,6 @@
     <t>0174040100000632</t>
   </si>
   <si>
-    <t>0174040100013237</t>
-  </si>
-  <si>
     <t>0174040100013901</t>
   </si>
   <si>
@@ -867,24 +597,9 @@
     <t>0174040100014094</t>
   </si>
   <si>
-    <t>0174040100013470</t>
-  </si>
-  <si>
-    <t>0174040100014174</t>
-  </si>
-  <si>
-    <t>0174040100014057</t>
-  </si>
-  <si>
     <t>0174040100014302</t>
   </si>
   <si>
-    <t>0174040100013700</t>
-  </si>
-  <si>
-    <t>0174040100013493</t>
-  </si>
-  <si>
     <t>0174040100013736</t>
   </si>
   <si>
@@ -897,66 +612,18 @@
     <t>0174040100014135</t>
   </si>
   <si>
-    <t>0174040100013667</t>
-  </si>
-  <si>
     <t>0174041000000632</t>
   </si>
   <si>
-    <t>0174040100013860</t>
-  </si>
-  <si>
     <t>0174040100013808</t>
   </si>
   <si>
-    <t>0174040100013809</t>
-  </si>
-  <si>
     <t>0174040100013632</t>
   </si>
   <si>
     <t>0174040100000586</t>
   </si>
   <si>
-    <t>0174040100013370</t>
-  </si>
-  <si>
-    <t>"17-03-2009"</t>
-  </si>
-  <si>
-    <t>"15-10-2010"</t>
-  </si>
-  <si>
-    <t>"15-08-2010"</t>
-  </si>
-  <si>
-    <t>"20-03-2007"</t>
-  </si>
-  <si>
-    <t>"15-10-2011"</t>
-  </si>
-  <si>
-    <t>"10-09-2010"</t>
-  </si>
-  <si>
-    <t>"26-02-2010"</t>
-  </si>
-  <si>
-    <t>"06-02-2009"</t>
-  </si>
-  <si>
-    <t>"23-07-2011"</t>
-  </si>
-  <si>
-    <t>"21-04-2009"</t>
-  </si>
-  <si>
-    <t>"22-12-2009"</t>
-  </si>
-  <si>
-    <t>"15-04-2011"</t>
-  </si>
-  <si>
     <t>"10-03-2011"</t>
   </si>
   <si>
@@ -984,9 +651,6 @@
     <t>"06-03-2012"</t>
   </si>
   <si>
-    <t>"11-08-2009"</t>
-  </si>
-  <si>
     <t>"09-11-2011"</t>
   </si>
   <si>
@@ -999,9 +663,6 @@
     <t>"20-08-2011"</t>
   </si>
   <si>
-    <t>"25-05-2012"</t>
-  </si>
-  <si>
     <t>"03-12-2011"</t>
   </si>
   <si>
@@ -1035,12 +696,6 @@
     <t>"25-06-2013"</t>
   </si>
   <si>
-    <t>"12-10-2013"</t>
-  </si>
-  <si>
-    <t>"06-07-2010"</t>
-  </si>
-  <si>
     <t>"28-02-2014"</t>
   </si>
   <si>
@@ -1056,9 +711,6 @@
     <t>"22-08-2014"</t>
   </si>
   <si>
-    <t>"18-10-2016"</t>
-  </si>
-  <si>
     <t>"27-03-2016"</t>
   </si>
   <si>
@@ -1074,24 +726,9 @@
     <t>"22-06-2013"</t>
   </si>
   <si>
-    <t>"07-07-2013"</t>
-  </si>
-  <si>
-    <t>"01-11-2014"</t>
-  </si>
-  <si>
-    <t>"10-09-2015"</t>
-  </si>
-  <si>
     <t>"01-09-2013"</t>
   </si>
   <si>
-    <t>"04-04-2014"</t>
-  </si>
-  <si>
-    <t>"29-10-2016"</t>
-  </si>
-  <si>
     <t>"17-04-2016"</t>
   </si>
   <si>
@@ -1104,42 +741,24 @@
     <t>"06-11-2016"</t>
   </si>
   <si>
-    <t>"23-04-2017"</t>
-  </si>
-  <si>
     <t>"16-02-2016"</t>
   </si>
   <si>
-    <t>"30-05-2015"</t>
-  </si>
-  <si>
     <t>"11-06-2016"</t>
   </si>
   <si>
-    <t>"12-01-2016"</t>
-  </si>
-  <si>
     <t>"07-07-2014"</t>
   </si>
   <si>
     <t>"15-11-2016"</t>
   </si>
   <si>
-    <t>"06-09-2016"</t>
-  </si>
-  <si>
     <t>"22-02-2017"</t>
   </si>
   <si>
     <t>"18-03-2018"</t>
   </si>
   <si>
-    <t>"04-05-2017"</t>
-  </si>
-  <si>
-    <t>"03-11-2017"</t>
-  </si>
-  <si>
     <t>"19-12-2017"</t>
   </si>
   <si>
@@ -1161,13 +780,7 @@
     <t>"14-12-2018"</t>
   </si>
   <si>
-    <t>"12-12-2016"</t>
-  </si>
-  <si>
     <t>"21-02-2017"</t>
-  </si>
-  <si>
-    <t>"20-10-2016"</t>
   </si>
   <si>
     <t>8th</t>
@@ -1607,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6164135-9890-4A13-B5F2-124A2B7BA924}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D15:D23"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,23 +1281,23 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1693,10 +1306,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
@@ -1707,23 +1320,23 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1732,10 +1345,10 @@
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -1746,23 +1359,23 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1771,10 +1384,10 @@
         <v>15</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1785,23 +1398,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>378</v>
+        <v>249</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1810,10 +1423,10 @@
         <v>15</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -1824,25 +1437,23 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="3" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1851,10 +1462,10 @@
         <v>15</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -1865,25 +1476,23 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1892,10 +1501,10 @@
         <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -1906,25 +1515,23 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1933,10 +1540,10 @@
         <v>15</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -1947,25 +1554,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1974,10 +1579,10 @@
         <v>15</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -1988,25 +1593,23 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>379</v>
+        <v>249</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -2015,10 +1618,10 @@
         <v>15</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -2029,25 +1632,23 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
-        <v>602</v>
+        <v>879</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2056,10 +1657,10 @@
         <v>15</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -2070,25 +1671,23 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
-        <v>603</v>
+        <v>882</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -2097,10 +1696,10 @@
         <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -2111,25 +1710,23 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>605</v>
+        <v>854</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -2138,10 +1735,10 @@
         <v>15</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -2152,23 +1749,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
-        <v>606</v>
+        <v>864</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -2177,10 +1774,10 @@
         <v>15</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -2191,23 +1788,23 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
-        <v>607</v>
+        <v>876</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2216,10 +1813,10 @@
         <v>15</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -2230,23 +1827,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
-        <v>608</v>
+        <v>880</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -2255,10 +1854,10 @@
         <v>15</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2269,23 +1868,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5">
-        <v>609</v>
+        <v>883</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -2294,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -2308,23 +1909,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5">
-        <v>610</v>
+        <v>884</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -2333,10 +1936,10 @@
         <v>15</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -2347,23 +1950,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5">
-        <v>611</v>
+        <v>886</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>380</v>
+        <v>251</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -2372,10 +1977,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -2386,23 +1991,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5">
-        <v>612</v>
+        <v>885</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -2411,10 +2016,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -2425,23 +2030,23 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5">
-        <v>613</v>
+        <v>888</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2449,11 +2054,9 @@
       <c r="I21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="15" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -2464,23 +2067,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5">
-        <v>614</v>
+        <v>893</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2489,10 +2092,10 @@
         <v>15</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -2503,23 +2106,23 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5">
-        <v>615</v>
+        <v>895</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2528,10 +2131,10 @@
         <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -2542,23 +2145,23 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="3" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2567,10 +2170,10 @@
         <v>15</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -2581,23 +2184,23 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -2606,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
@@ -2620,23 +2223,23 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -2645,10 +2248,10 @@
         <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s">
         <v>16</v>
@@ -2659,23 +2262,23 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -2683,11 +2286,9 @@
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="15" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
         <v>16</v>
@@ -2698,23 +2299,23 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -2723,10 +2324,10 @@
         <v>15</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s">
         <v>16</v>
@@ -2737,23 +2338,23 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="3" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -2762,10 +2363,10 @@
         <v>15</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s">
         <v>16</v>
@@ -2776,25 +2377,23 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>161</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -2803,10 +2402,10 @@
         <v>15</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
         <v>16</v>
@@ -2817,25 +2416,23 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5">
-        <v>883</v>
+        <v>910</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>162</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -2844,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
         <v>16</v>
@@ -2858,25 +2455,23 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>163</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -2884,11 +2479,9 @@
       <c r="I32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="J32" s="9"/>
       <c r="K32" s="15" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
         <v>16</v>
@@ -2899,25 +2492,23 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5">
-        <v>886</v>
+        <v>913</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>384</v>
+        <v>255</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -2925,11 +2516,9 @@
       <c r="I33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="J33" s="9"/>
       <c r="K33" s="15" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
         <v>16</v>
@@ -2940,23 +2529,23 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="3" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -2965,10 +2554,10 @@
         <v>15</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s">
         <v>16</v>
@@ -2979,23 +2568,23 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5">
-        <v>888</v>
+        <v>915</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -3003,9 +2592,11 @@
       <c r="I35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="J35" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="K35" s="15" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s">
         <v>16</v>
@@ -3016,23 +2607,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="3" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -3041,10 +2632,10 @@
         <v>15</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
         <v>16</v>
@@ -3055,23 +2646,23 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C37" s="5">
-        <v>895</v>
+        <v>145</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -3079,11 +2670,9 @@
       <c r="I37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="J37" s="9"/>
       <c r="K37" s="15" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s">
         <v>16</v>
@@ -3094,23 +2683,23 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5">
-        <v>891</v>
+        <v>146</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -3118,11 +2707,9 @@
       <c r="I38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>200</v>
-      </c>
+      <c r="J38" s="9"/>
       <c r="K38" s="15" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s">
         <v>16</v>
@@ -3133,23 +2720,23 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C39" s="5">
-        <v>899</v>
+        <v>147</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="3" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -3157,11 +2744,9 @@
       <c r="I39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>201</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="15" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s">
         <v>16</v>
@@ -3172,23 +2757,23 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5">
-        <v>896</v>
+        <v>149</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -3196,9 +2781,11 @@
       <c r="I40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="K40" s="15" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s">
         <v>16</v>
@@ -3209,23 +2796,23 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C41" s="5">
-        <v>853</v>
+        <v>153</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -3234,10 +2821,10 @@
         <v>15</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s">
         <v>16</v>
@@ -3251,20 +2838,20 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -3273,10 +2860,10 @@
         <v>15</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
         <v>16</v>
@@ -3290,20 +2877,20 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C43" s="5">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -3313,7 +2900,7 @@
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="15" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s">
         <v>16</v>
@@ -3327,20 +2914,20 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="3" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -3349,10 +2936,10 @@
         <v>15</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s">
         <v>16</v>
@@ -3362,24 +2949,24 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5">
-        <v>906</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -3387,12 +2974,8 @@
       <c r="I45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>269</v>
-      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="16"/>
       <c r="L45" t="s">
         <v>16</v>
       </c>
@@ -3401,24 +2984,24 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5">
-        <v>907</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -3426,12 +3009,8 @@
       <c r="I46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>270</v>
-      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="16"/>
       <c r="L46" t="s">
         <v>16</v>
       </c>
@@ -3440,23 +3019,23 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5">
-        <v>908</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="4" t="s">
         <v>108</v>
       </c>
       <c r="H47" t="s">
@@ -3466,11 +3045,9 @@
         <v>15</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>271</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="K47" s="16"/>
       <c r="L47" t="s">
         <v>16</v>
       </c>
@@ -3479,24 +3056,24 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C48" s="5">
-        <v>910</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="3" t="s">
-        <v>122</v>
+        <v>157</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -3505,11 +3082,9 @@
         <v>15</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>272</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K48" s="16"/>
       <c r="L48" t="s">
         <v>16</v>
       </c>
@@ -3518,24 +3093,24 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B49">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C49" s="5">
-        <v>911</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="3" t="s">
-        <v>130</v>
+        <v>158</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -3544,9 +3119,7 @@
         <v>15</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="15" t="s">
-        <v>273</v>
-      </c>
+      <c r="K49" s="16"/>
       <c r="L49" t="s">
         <v>16</v>
       </c>
@@ -3555,24 +3128,24 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C50" s="5">
-        <v>913</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -3581,9 +3154,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="K50" s="16"/>
       <c r="L50" t="s">
         <v>16</v>
       </c>
@@ -3592,24 +3163,24 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B51">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C51" s="5">
-        <v>901</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="3" t="s">
-        <v>128</v>
+        <v>160</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -3617,12 +3188,8 @@
       <c r="I51" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>275</v>
-      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="16"/>
       <c r="L51" t="s">
         <v>16</v>
       </c>
@@ -3631,24 +3198,24 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B52">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C52" s="5">
-        <v>915</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="3" t="s">
-        <v>135</v>
+        <v>161</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -3656,12 +3223,8 @@
       <c r="I52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>276</v>
-      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="16"/>
       <c r="L52" t="s">
         <v>16</v>
       </c>
@@ -3670,24 +3233,24 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C53" s="5">
-        <v>916</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -3695,12 +3258,8 @@
       <c r="I53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>277</v>
-      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="16"/>
       <c r="L53" t="s">
         <v>16</v>
       </c>
@@ -3709,24 +3268,24 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B54">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C54" s="5">
-        <v>897</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -3734,12 +3293,8 @@
       <c r="I54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>278</v>
-      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="16"/>
       <c r="L54" t="s">
         <v>16</v>
       </c>
@@ -3748,1315 +3303,143 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55">
-        <v>52</v>
-      </c>
-      <c r="C55" s="5">
-        <v>898</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K55" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="L55" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" t="s">
-        <v>13</v>
-      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="1"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56">
-        <v>53</v>
-      </c>
-      <c r="C56" s="5">
-        <v>892</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="L56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" t="s">
-        <v>13</v>
-      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="1"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57">
-        <v>54</v>
-      </c>
-      <c r="C57" s="5">
-        <v>894</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="L57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" t="s">
-        <v>13</v>
-      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="1"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>55</v>
-      </c>
-      <c r="C58" s="5">
-        <v>143</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="L58" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" t="s">
-        <v>13</v>
-      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="1"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59">
-        <v>56</v>
-      </c>
-      <c r="C59" s="5">
-        <v>145</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="L59" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" t="s">
-        <v>13</v>
-      </c>
+      <c r="E59" s="14"/>
+      <c r="F59" s="1"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60">
-        <v>57</v>
-      </c>
-      <c r="C60" s="5">
-        <v>146</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="L60" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" t="s">
-        <v>13</v>
-      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="1"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61">
-        <v>58</v>
-      </c>
-      <c r="C61" s="5">
-        <v>147</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="L61" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" t="s">
-        <v>13</v>
-      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="1"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62">
-        <v>59</v>
-      </c>
-      <c r="C62" s="5">
-        <v>149</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="L62" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" t="s">
-        <v>13</v>
-      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="1"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63">
-        <v>60</v>
-      </c>
-      <c r="C63" s="5">
-        <v>152</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="L63" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" t="s">
-        <v>13</v>
-      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="1"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64">
-        <v>61</v>
-      </c>
-      <c r="C64" s="5">
-        <v>153</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="L64" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65">
-        <v>62</v>
-      </c>
-      <c r="C65" s="5">
-        <v>154</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L65" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66">
-        <v>63</v>
-      </c>
-      <c r="C66" s="5">
-        <v>905</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K66" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="L66" t="s">
-        <v>16</v>
-      </c>
-      <c r="M66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67">
-        <v>64</v>
-      </c>
-      <c r="C67" s="5">
-        <v>909</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="L67" t="s">
-        <v>16</v>
-      </c>
-      <c r="M67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68">
-        <v>65</v>
-      </c>
-      <c r="C68" s="5">
-        <v>912</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="L68" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69">
-        <v>66</v>
-      </c>
-      <c r="C69" s="5">
-        <v>914</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="L69" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70">
-        <v>67</v>
-      </c>
-      <c r="C70" s="5">
-        <v>925</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K70" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="L70" t="s">
-        <v>16</v>
-      </c>
-      <c r="M70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71">
-        <v>68</v>
-      </c>
-      <c r="C71" s="5">
-        <v>926</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="K71" s="15"/>
-      <c r="L71" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72">
-        <v>69</v>
-      </c>
-      <c r="C72" s="5">
-        <v>148</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="16"/>
-      <c r="L72" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73">
-        <v>70</v>
-      </c>
-      <c r="C73" s="5">
-        <v>150</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="16"/>
-      <c r="L73" t="s">
-        <v>16</v>
-      </c>
-      <c r="M73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74">
-        <v>71</v>
-      </c>
-      <c r="C74" s="5">
-        <v>151</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="16"/>
-      <c r="L74" t="s">
-        <v>16</v>
-      </c>
-      <c r="M74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75">
-        <v>72</v>
-      </c>
-      <c r="C75" s="5">
-        <v>155</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K75" s="16"/>
-      <c r="L75" t="s">
-        <v>16</v>
-      </c>
-      <c r="M75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76">
-        <v>73</v>
-      </c>
-      <c r="C76" s="5">
-        <v>156</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="K76" s="16"/>
-      <c r="L76" t="s">
-        <v>16</v>
-      </c>
-      <c r="M76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77">
-        <v>74</v>
-      </c>
-      <c r="C77" s="5">
-        <v>157</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="K77" s="16"/>
-      <c r="L77" t="s">
-        <v>16</v>
-      </c>
-      <c r="M77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78">
-        <v>75</v>
-      </c>
-      <c r="C78" s="5">
-        <v>158</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="16"/>
-      <c r="L78" t="s">
-        <v>16</v>
-      </c>
-      <c r="M78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79">
-        <v>76</v>
-      </c>
-      <c r="C79" s="5">
-        <v>159</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="16"/>
-      <c r="L79" t="s">
-        <v>16</v>
-      </c>
-      <c r="M79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80">
-        <v>77</v>
-      </c>
-      <c r="C80" s="5">
-        <v>160</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="16"/>
-      <c r="L80" t="s">
-        <v>16</v>
-      </c>
-      <c r="M80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81">
-        <v>78</v>
-      </c>
-      <c r="C81" s="5">
-        <v>161</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="16"/>
-      <c r="L81" t="s">
-        <v>16</v>
-      </c>
-      <c r="M81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82">
-        <v>79</v>
-      </c>
-      <c r="C82" s="5">
-        <v>162</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="16"/>
-      <c r="L82" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83">
-        <v>80</v>
-      </c>
-      <c r="C83" s="5">
-        <v>163</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="16"/>
-      <c r="L83" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84">
-        <v>81</v>
-      </c>
-      <c r="C84" s="5">
-        <v>164</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="16"/>
-      <c r="L84" t="s">
-        <v>16</v>
-      </c>
-      <c r="M84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85">
-        <v>82</v>
-      </c>
-      <c r="C85" s="5">
-        <v>165</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="16"/>
-      <c r="L85" t="s">
-        <v>16</v>
-      </c>
-      <c r="M85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E86" s="14"/>
-      <c r="F86" s="1"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E87" s="14"/>
-      <c r="F87" s="1"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E88" s="14"/>
-      <c r="F88" s="1"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E89" s="14"/>
-      <c r="F89" s="1"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E90" s="14"/>
-      <c r="F90" s="1"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E91" s="14"/>
-      <c r="F91" s="1"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E92" s="14"/>
-      <c r="F92" s="1"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E93" s="14"/>
-      <c r="F93" s="1"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E94" s="14"/>
-      <c r="F94" s="1"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E95" s="14"/>
-      <c r="F95" s="1"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E96" s="14"/>
-      <c r="F96" s="1"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E97" s="14"/>
-      <c r="F97" s="1"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E98" s="14"/>
-      <c r="F98" s="1"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E99" s="14"/>
-      <c r="F99" s="1"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E100" s="14"/>
-      <c r="F100" s="1"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E101" s="14"/>
-      <c r="F101" s="1"/>
-      <c r="I101" s="2"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="1"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65" s="14"/>
+      <c r="F65" s="1"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66" s="14"/>
+      <c r="F66" s="1"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67" s="14"/>
+      <c r="F67" s="1"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68" s="14"/>
+      <c r="F68" s="1"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69" s="14"/>
+      <c r="F69" s="1"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70" s="14"/>
+      <c r="F70" s="1"/>
+      <c r="I70" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" xr:uid="{A987C609-390C-46F6-A1E6-FBB26828ED8F}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{62615FE3-0DDC-4A3D-B51C-AD8ED3C9268B}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{8C028264-5AA4-4E45-BD33-DB9540F3B5CE}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{E1345216-816B-4258-871C-68EB72535F56}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{FB2E2430-10A0-49AC-8B6A-587F0A8A020F}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{E747E87A-8FA0-4892-B87B-8B12EBD534E9}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{7CA6CC6A-0A3D-4CEF-B74D-33F5255099BC}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{CCAF305F-B862-4F42-9426-8A9DDA9DEC2F}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{1B820B09-25A0-4882-9A24-4C1F7925F08C}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{D80FAEBD-0633-46A4-AD43-CA8CB3D3CE1E}"/>
-    <hyperlink ref="I15" r:id="rId11" xr:uid="{7EE789C6-B63C-4952-91A8-543E07C2B210}"/>
-    <hyperlink ref="I16" r:id="rId12" xr:uid="{FCD8588E-0566-48E2-9581-7483B30DC4BA}"/>
-    <hyperlink ref="I17" r:id="rId13" xr:uid="{7A0E4FF2-3102-449E-A311-367A9AA5F411}"/>
-    <hyperlink ref="I18" r:id="rId14" xr:uid="{9CF25291-04B8-4124-9C00-A1FAB04991F7}"/>
-    <hyperlink ref="I19" r:id="rId15" xr:uid="{E3D65D8E-A9BF-4646-8186-A19DE5B15DA1}"/>
-    <hyperlink ref="I20" r:id="rId16" xr:uid="{0EDA1737-475B-4200-A356-2C31585964B7}"/>
-    <hyperlink ref="I21" r:id="rId17" xr:uid="{CE2AD2DD-395C-4AA4-B611-DA6E305994A3}"/>
-    <hyperlink ref="I22" r:id="rId18" xr:uid="{B6BBE79A-4692-4F92-9EFC-5DA7638F8750}"/>
-    <hyperlink ref="I23" r:id="rId19" xr:uid="{D22F057C-0C0E-4889-B739-AF4A958DD7B3}"/>
-    <hyperlink ref="I24" r:id="rId20" xr:uid="{E32CD37D-0B78-4D08-9399-A95A3C0CB949}"/>
-    <hyperlink ref="I25" r:id="rId21" xr:uid="{E9C294B0-D804-400A-A7E7-8E4C1C174E2B}"/>
-    <hyperlink ref="I26" r:id="rId22" xr:uid="{22F8EF80-2356-4BCD-A7DA-9B2DABC196AB}"/>
-    <hyperlink ref="I27" r:id="rId23" xr:uid="{A1FB7F23-8AD3-4115-B951-0867180009E0}"/>
-    <hyperlink ref="I28" r:id="rId24" xr:uid="{C7C51080-D148-4E22-A285-F260A8A3AD09}"/>
-    <hyperlink ref="I29" r:id="rId25" xr:uid="{27AA305B-4D4C-4F85-B95A-983B9B5EEF60}"/>
-    <hyperlink ref="I30" r:id="rId26" xr:uid="{7D57E509-3001-4303-BE2B-521F2FCE657F}"/>
-    <hyperlink ref="I31" r:id="rId27" xr:uid="{EC033EB7-EEA9-4014-96CF-370BFBEC297D}"/>
-    <hyperlink ref="I32" r:id="rId28" xr:uid="{77F45CF6-EB78-4844-99D1-C11E9B8DC4A4}"/>
-    <hyperlink ref="I33" r:id="rId29" xr:uid="{E657B260-A884-4C3D-A409-B1C23875DBF1}"/>
-    <hyperlink ref="I34" r:id="rId30" xr:uid="{F5F10431-5B56-43E4-AA83-F2D23D1782F3}"/>
-    <hyperlink ref="I35" r:id="rId31" xr:uid="{F1162AC7-6FB6-4531-BDA1-230169044A55}"/>
-    <hyperlink ref="I36" r:id="rId32" xr:uid="{1FE28FE2-1EE6-4C4A-8E61-7185FF07BED1}"/>
-    <hyperlink ref="I37" r:id="rId33" xr:uid="{A5FD86C7-4598-4476-B099-11AE0368B10A}"/>
-    <hyperlink ref="I38" r:id="rId34" xr:uid="{45F7839B-E7A0-4835-8C6C-A99E77DBEFEA}"/>
-    <hyperlink ref="I39" r:id="rId35" xr:uid="{F117C198-75DF-4971-98AA-DE598009E90D}"/>
-    <hyperlink ref="I40" r:id="rId36" xr:uid="{BC48D62C-AEB8-44C3-AD4E-5D30D302517C}"/>
-    <hyperlink ref="I41" r:id="rId37" xr:uid="{A65D38CF-AE80-4017-B92C-09B75B075627}"/>
-    <hyperlink ref="I42" r:id="rId38" xr:uid="{CC6C1068-266F-435C-8ADF-2435DAF75018}"/>
-    <hyperlink ref="I43" r:id="rId39" xr:uid="{0D691A23-96A5-448C-A396-8AC62654FF76}"/>
-    <hyperlink ref="I44" r:id="rId40" xr:uid="{C782D3F3-29DE-41C8-90FA-C13F2A0D0642}"/>
-    <hyperlink ref="I45" r:id="rId41" xr:uid="{D4AA557B-5307-4D1F-A3AB-76753E6F00E0}"/>
-    <hyperlink ref="I46" r:id="rId42" xr:uid="{C74CDD8E-218F-4171-AE47-2CCAC9D87009}"/>
-    <hyperlink ref="I47" r:id="rId43" xr:uid="{36C667C0-F38B-4F4C-9E70-2FB35C53E9E8}"/>
-    <hyperlink ref="I48" r:id="rId44" xr:uid="{38CFA157-C2C4-4770-8111-2B67618050BA}"/>
-    <hyperlink ref="I49" r:id="rId45" xr:uid="{B4558E65-FDE6-469A-9888-C775187014C3}"/>
-    <hyperlink ref="I50" r:id="rId46" xr:uid="{C29B20AB-ED74-4FB5-8595-0A7CC02619BE}"/>
-    <hyperlink ref="I51" r:id="rId47" xr:uid="{0CE317C7-1E78-4BB0-B52A-8B1D61BD49CC}"/>
-    <hyperlink ref="I52" r:id="rId48" xr:uid="{276451B2-8ECB-4E36-97D7-9F72BC29F09B}"/>
-    <hyperlink ref="I53" r:id="rId49" xr:uid="{2C087FFF-9668-48A2-BB28-E184537AA15F}"/>
-    <hyperlink ref="I54" r:id="rId50" xr:uid="{6F739B72-8FAD-44CD-A967-D4855D95C708}"/>
-    <hyperlink ref="I55" r:id="rId51" xr:uid="{4905DAA8-6ECB-4C21-9FD5-CEBAD1C8E197}"/>
-    <hyperlink ref="I56" r:id="rId52" xr:uid="{C43BF0C1-14EF-4FDE-A5F1-528413C42F56}"/>
-    <hyperlink ref="I57" r:id="rId53" xr:uid="{F5D1B2D7-EFAB-4012-A40D-608B02C299DA}"/>
-    <hyperlink ref="I58" r:id="rId54" xr:uid="{23210052-E88C-4669-81C8-63E0B26421FC}"/>
-    <hyperlink ref="I59" r:id="rId55" xr:uid="{42F03256-9AF6-4D10-B736-5473AA267D73}"/>
-    <hyperlink ref="I60" r:id="rId56" xr:uid="{1D988679-0EEB-421E-90CD-CEE11A2C1CB8}"/>
-    <hyperlink ref="I61" r:id="rId57" xr:uid="{4E1F60CE-E618-4654-842C-9847EAF54A7B}"/>
-    <hyperlink ref="I62" r:id="rId58" xr:uid="{524864D7-55C9-438D-A58E-827727725D15}"/>
-    <hyperlink ref="I63" r:id="rId59" xr:uid="{7F59DFBA-00D3-4FD4-BB9B-EC9A44E3F788}"/>
-    <hyperlink ref="I64" r:id="rId60" xr:uid="{2DB2DC48-8049-40CD-A714-2841A21EF319}"/>
-    <hyperlink ref="I65" r:id="rId61" xr:uid="{FF70289D-3963-4A4A-BCBC-3F8899087D1E}"/>
-    <hyperlink ref="I66" r:id="rId62" xr:uid="{95A395C8-90E2-4415-A833-7B53F82630E5}"/>
-    <hyperlink ref="I67" r:id="rId63" xr:uid="{9A6699A7-1549-4091-BAF1-0240D2375989}"/>
-    <hyperlink ref="I68" r:id="rId64" xr:uid="{C35E06CE-E30E-4DDF-86D2-695F87E42504}"/>
-    <hyperlink ref="I69" r:id="rId65" xr:uid="{E0495C65-C3C8-463A-9F02-71B44B1F4DC6}"/>
-    <hyperlink ref="I70" r:id="rId66" xr:uid="{CC57E0AA-3519-4804-A37C-E36367ACED5A}"/>
-    <hyperlink ref="I71" r:id="rId67" xr:uid="{B334A5D0-B94B-40E6-A6E2-69857D3F2046}"/>
-    <hyperlink ref="I72" r:id="rId68" xr:uid="{92F8A380-2863-4552-AE1F-1946102D937B}"/>
-    <hyperlink ref="I73" r:id="rId69" xr:uid="{2F3B1849-05D5-4BDF-8BD6-1BD10DEF1903}"/>
-    <hyperlink ref="I74" r:id="rId70" xr:uid="{487DE4F3-37DA-4385-812B-687E452E878D}"/>
-    <hyperlink ref="I75" r:id="rId71" xr:uid="{444BC73A-1A8E-4652-ABD8-49EBCFBD222E}"/>
-    <hyperlink ref="I76" r:id="rId72" xr:uid="{1F5A0BCB-2A71-411C-8238-80CB2981CA6C}"/>
-    <hyperlink ref="I77" r:id="rId73" xr:uid="{BDE7B17F-5946-4584-A557-ABB419F9370F}"/>
-    <hyperlink ref="I78" r:id="rId74" xr:uid="{C52C125C-9599-4D66-BAC2-8144C1D3C3E1}"/>
-    <hyperlink ref="I79" r:id="rId75" xr:uid="{40C42BE3-DDC9-49B8-AF54-961E8F969FD3}"/>
-    <hyperlink ref="I80" r:id="rId76" xr:uid="{AD1C477A-5B5C-4286-9B73-F1178F0F966D}"/>
-    <hyperlink ref="I81" r:id="rId77" xr:uid="{458D77A9-4806-4020-8333-FB6C9D492A00}"/>
-    <hyperlink ref="I82" r:id="rId78" xr:uid="{9F7F2E21-5EAB-478C-9ECD-8917CE91EC02}"/>
-    <hyperlink ref="I83" r:id="rId79" xr:uid="{3808C9D5-62DE-41BB-A3A0-A4A29896879D}"/>
-    <hyperlink ref="I84" r:id="rId80" xr:uid="{27A77F2D-43CF-4BF7-9BF5-6A09FA4D5456}"/>
-    <hyperlink ref="I85" r:id="rId81" xr:uid="{31362A2D-3B06-46AA-B6B3-762C36D52B79}"/>
-    <hyperlink ref="I2:I4" r:id="rId82" display="email@gmail.com" xr:uid="{C6ADB588-574D-475B-950B-42D12E7B3433}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{D80FAEBD-0633-46A4-AD43-CA8CB3D3CE1E}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{7EE789C6-B63C-4952-91A8-543E07C2B210}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{FCD8588E-0566-48E2-9581-7483B30DC4BA}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{7A0E4FF2-3102-449E-A311-367A9AA5F411}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{9CF25291-04B8-4124-9C00-A1FAB04991F7}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{E3D65D8E-A9BF-4646-8186-A19DE5B15DA1}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{0EDA1737-475B-4200-A356-2C31585964B7}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{CE2AD2DD-395C-4AA4-B611-DA6E305994A3}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{B6BBE79A-4692-4F92-9EFC-5DA7638F8750}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{E32CD37D-0B78-4D08-9399-A95A3C0CB949}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{E9C294B0-D804-400A-A7E7-8E4C1C174E2B}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{22F8EF80-2356-4BCD-A7DA-9B2DABC196AB}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{A1FB7F23-8AD3-4115-B951-0867180009E0}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{27AA305B-4D4C-4F85-B95A-983B9B5EEF60}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{7D57E509-3001-4303-BE2B-521F2FCE657F}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{EC033EB7-EEA9-4014-96CF-370BFBEC297D}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{77F45CF6-EB78-4844-99D1-C11E9B8DC4A4}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{E657B260-A884-4C3D-A409-B1C23875DBF1}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{F5F10431-5B56-43E4-AA83-F2D23D1782F3}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{F1162AC7-6FB6-4531-BDA1-230169044A55}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{1FE28FE2-1EE6-4C4A-8E61-7185FF07BED1}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{A5FD86C7-4598-4476-B099-11AE0368B10A}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{45F7839B-E7A0-4835-8C6C-A99E77DBEFEA}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{F117C198-75DF-4971-98AA-DE598009E90D}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{CC6C1068-266F-435C-8ADF-2435DAF75018}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{0D691A23-96A5-448C-A396-8AC62654FF76}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{C782D3F3-29DE-41C8-90FA-C13F2A0D0642}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{D4AA557B-5307-4D1F-A3AB-76753E6F00E0}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{C74CDD8E-218F-4171-AE47-2CCAC9D87009}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{38CFA157-C2C4-4770-8111-2B67618050BA}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{B4558E65-FDE6-469A-9888-C775187014C3}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{C29B20AB-ED74-4FB5-8595-0A7CC02619BE}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{0CE317C7-1E78-4BB0-B52A-8B1D61BD49CC}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{276451B2-8ECB-4E36-97D7-9F72BC29F09B}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{C43BF0C1-14EF-4FDE-A5F1-528413C42F56}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{42F03256-9AF6-4D10-B736-5473AA267D73}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{1D988679-0EEB-421E-90CD-CEE11A2C1CB8}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{4E1F60CE-E618-4654-842C-9847EAF54A7B}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{524864D7-55C9-438D-A58E-827727725D15}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{2DB2DC48-8049-40CD-A714-2841A21EF319}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{95A395C8-90E2-4415-A833-7B53F82630E5}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{C35E06CE-E30E-4DDF-86D2-695F87E42504}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{E0495C65-C3C8-463A-9F02-71B44B1F4DC6}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{92F8A380-2863-4552-AE1F-1946102D937B}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{2F3B1849-05D5-4BDF-8BD6-1BD10DEF1903}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{1F5A0BCB-2A71-411C-8238-80CB2981CA6C}"/>
+    <hyperlink ref="I48" r:id="rId47" xr:uid="{BDE7B17F-5946-4584-A557-ABB419F9370F}"/>
+    <hyperlink ref="I49" r:id="rId48" xr:uid="{C52C125C-9599-4D66-BAC2-8144C1D3C3E1}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{40C42BE3-DDC9-49B8-AF54-961E8F969FD3}"/>
+    <hyperlink ref="I51" r:id="rId50" xr:uid="{AD1C477A-5B5C-4286-9B73-F1178F0F966D}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{458D77A9-4806-4020-8333-FB6C9D492A00}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{9F7F2E21-5EAB-478C-9ECD-8917CE91EC02}"/>
+    <hyperlink ref="I54" r:id="rId53" xr:uid="{27A77F2D-43CF-4BF7-9BF5-6A09FA4D5456}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
 </worksheet>
 </file>